--- a/measures/instructions_surveillance.xlsx
+++ b/measures/instructions_surveillance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ian/git/unconscious-ec-RRR/measures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56A4150-99BE-C14B-8EA6-9D8F3B3347B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4AE0D6-31BD-3749-98F8-B13F714FDCDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="460" windowWidth="26820" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,24 +79,24 @@
     <t>instructions_text_bottom</t>
   </si>
   <si>
+    <t>So whenever Crandios (his name or his picture) appears on the screen, hit the spacebar as quickly as possible. Hit the spacebar whenever you see an image of Crandio or the word CRANDIOS. 
+Press the spacebar to start the task</t>
+  </si>
+  <si>
     <t>So whenever Shelmet (his name or his picture) appears on the screen, hit the spacebar as quickly as possible. Hit the spacebar whenever you see an image of Shelmet or the word SHELMET. 
-Press the spacebar to start the this task</t>
-  </si>
-  <si>
-    <t>So whenever Crandios (his name or his picture) appears on the screen, hit the spacebar as quickly as possible. Hit the spacebar whenever you see an image of Crandio or the word CRANDIOS. 
-Press the spacebar to start the this task</t>
+Press the spacebar to start the task</t>
   </si>
   <si>
     <t>So whenever Grubbin (his name or his picture) appears on the screen, hit the spacebar as quickly as possible. Hit the spacebar whenever you see an image of Grubbin or the word GRUBBIN. 
-Press the spacebar to start the this task</t>
+Press the spacebar to start the task</t>
   </si>
   <si>
     <t>So whenever Magerana (his name or his picture) appears on the screen, hit the spacebar as quickly as possible. Hit the spacebar whenever you see an image of MAGEARNA or the word MAGERANA. 
-Press the spacebar to start the this task</t>
+Press the spacebar to start the task</t>
   </si>
   <si>
     <t>So whenever Palpitoad (his name or his picture) appears on the screen, hit the spacebar as quickly as possible. Hit the spacebar whenever you see an image of Palpitoad or the word PALPITOAD. 
-Press the spacebar to start the this task</t>
+Press the spacebar to start the task</t>
   </si>
 </sst>
 </file>
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -997,7 +997,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
@@ -1011,7 +1011,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>

--- a/measures/instructions_surveillance.xlsx
+++ b/measures/instructions_surveillance.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ian/git/unconscious-ec-RRR/measures/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4AE0D6-31BD-3749-98F8-B13F714FDCDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="460" windowWidth="26820" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11120" yWindow="480" windowWidth="26820" windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -102,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -711,7 +710,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -763,7 +762,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -957,28 +956,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -992,7 +991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="119">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1006,7 +1005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="119">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1020,7 +1019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="119">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -1034,7 +1033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="119">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1048,7 +1047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="119">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1062,17 +1061,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>